--- a/output/fit_clients/fit_round_182.xlsx
+++ b/output/fit_clients/fit_round_182.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1866106152.706394</v>
+        <v>2434291389.308385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07052942918362233</v>
+        <v>0.08412871781032838</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03653803088359318</v>
+        <v>0.03736006051435792</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>933053053.9399745</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1860938049.1545</v>
+        <v>1658066325.11425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1452865437323154</v>
+        <v>0.1259335957388039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04609512531324689</v>
+        <v>0.03366831532329294</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>930469043.0710381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4719780618.875458</v>
+        <v>4093611861.273589</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1373229706349378</v>
+        <v>0.1027131557538997</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02753563034457414</v>
+        <v>0.03043131762964292</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2359890374.576994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3523751192.715034</v>
+        <v>4000846490.403874</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09651631355114194</v>
+        <v>0.07478687675221489</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03355986654355867</v>
+        <v>0.03619630546877831</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>70</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1761875631.566432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2882615817.951964</v>
+        <v>1897721374.456323</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1116814007835749</v>
+        <v>0.1088010596706184</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04713051177964135</v>
+        <v>0.04187806404306255</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1441307843.015991</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2025266486.026457</v>
+        <v>2387991298.001861</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09666559831638</v>
+        <v>0.06394347271872396</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04441480862914692</v>
+        <v>0.0425149070115931</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>57</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1012633301.681864</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3027476853.049839</v>
+        <v>3924641864.740424</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1491307180078954</v>
+        <v>0.1393390829065465</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03077198703884677</v>
+        <v>0.03026491595681998</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>58</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1513738486.821895</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1651444447.605242</v>
+        <v>1712893943.96391</v>
       </c>
       <c r="F9" t="n">
-        <v>0.196368880383634</v>
+        <v>0.1601889855591064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03086811577076203</v>
+        <v>0.02264012746830394</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>825722298.7555786</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4319507443.552104</v>
+        <v>4077714158.05234</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1839428204435133</v>
+        <v>0.1742779126002851</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03938659303441951</v>
+        <v>0.03391051219316282</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>76</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2159753768.403178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3454546439.661228</v>
+        <v>2607673973.137431</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1744223223609663</v>
+        <v>0.1356021883508816</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03559944946346518</v>
+        <v>0.03424751493869527</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1727273194.487181</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3090183689.778077</v>
+        <v>3240949440.648139</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1635419851626257</v>
+        <v>0.1720649637357107</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04005497378670983</v>
+        <v>0.04399368672025512</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>64</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1545091871.148689</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5012463805.703902</v>
+        <v>4860306523.485313</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06939991275089644</v>
+        <v>0.07009434016826729</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02224541039377202</v>
+        <v>0.02155734742409922</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>61</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2506231906.328941</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3696900757.095455</v>
+        <v>3037381986.612095</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1166926212894333</v>
+        <v>0.1695071694364986</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04076887183749743</v>
+        <v>0.0384762425323101</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>58</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1848450362.493499</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1623629249.374152</v>
+        <v>1616908482.282213</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08138753387583206</v>
+        <v>0.09767473341226299</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03110495134881252</v>
+        <v>0.03622723930252393</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>811814738.1891004</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2418170592.541893</v>
+        <v>2477750422.778043</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1022452940634536</v>
+        <v>0.09208548960894652</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05063216267875605</v>
+        <v>0.03984051511658292</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1209085334.370038</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3670357408.435165</v>
+        <v>3718827648.691453</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1390255336232744</v>
+        <v>0.1054649001302669</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04177683449468231</v>
+        <v>0.03976941457649375</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>53</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1835178755.094875</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2735719588.016836</v>
+        <v>3468636498.413253</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1248432755404746</v>
+        <v>0.1366060935285676</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03435057382874721</v>
+        <v>0.02218707303468961</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>59</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1367859843.351822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1179741306.688866</v>
+        <v>1104623266.183354</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1504394211264543</v>
+        <v>0.1153420973171306</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02397891615533359</v>
+        <v>0.01820249288549208</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>589870726.2968777</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2814716492.016434</v>
+        <v>2053073719.786561</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1113822099964636</v>
+        <v>0.1074596977603852</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02556751017244889</v>
+        <v>0.03031716985362658</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1407358185.555979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2378247014.457314</v>
+        <v>1876354426.256096</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08275875006616473</v>
+        <v>0.08055794434569966</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04486477557075366</v>
+        <v>0.03032348775447396</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1189123506.974403</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3461231345.536515</v>
+        <v>3501934722.364542</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1325867756431605</v>
+        <v>0.1188719093556843</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05229928532685532</v>
+        <v>0.04836709096061489</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>51</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1730615706.655165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1063432972.800349</v>
+        <v>1143962188.066428</v>
       </c>
       <c r="F23" t="n">
-        <v>0.135869381737532</v>
+        <v>0.1199725894639799</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03338199107712827</v>
+        <v>0.05321306766538651</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>531716545.8683275</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3496315568.495839</v>
+        <v>3823299475.887521</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1433426257500955</v>
+        <v>0.09320605439123231</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02686795538876685</v>
+        <v>0.02497702440509082</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>54</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1748157786.063208</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>938092832.3771145</v>
+        <v>1057284204.885759</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09006117302922255</v>
+        <v>0.1001323256074617</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02223265890253436</v>
+        <v>0.02599703019117877</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>469046494.4012386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1028774263.288802</v>
+        <v>1449554145.184378</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08235422123717938</v>
+        <v>0.1121279199249354</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03768541567680018</v>
+        <v>0.03096459856216966</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>514387110.7462026</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4010211776.256213</v>
+        <v>3119222952.140857</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1371114665789082</v>
+        <v>0.1471429800198001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0219369030401457</v>
+        <v>0.01965164099136763</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>43</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2005105897.746495</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2600845639.345284</v>
+        <v>3096221118.606955</v>
       </c>
       <c r="F28" t="n">
-        <v>0.150385565206421</v>
+        <v>0.1131150772372625</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0481584342283475</v>
+        <v>0.04442020203509154</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>58</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1300422796.216734</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3635532815.296564</v>
+        <v>3868981393.180176</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1398918884592528</v>
+        <v>0.1364858954582331</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03444178967201681</v>
+        <v>0.04119284045657168</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>82</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1817766449.709588</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2056471677.346231</v>
+        <v>1547803327.203362</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1029564944311429</v>
+        <v>0.1022557402605033</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03901401030849935</v>
+        <v>0.0346989397950744</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1028235882.514597</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1335297307.765298</v>
+        <v>1238540563.408716</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06923830193292281</v>
+        <v>0.1108709713541733</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03274900208914677</v>
+        <v>0.03192677567790834</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>667648573.4728891</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1232630800.674916</v>
+        <v>1231853600.299097</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1040305931732956</v>
+        <v>0.09404712744744481</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02813749340331114</v>
+        <v>0.03620348444796464</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>616315413.2980522</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2115006293.475505</v>
+        <v>2145204551.270933</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1881348022013883</v>
+        <v>0.2023365635270367</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0554588508230479</v>
+        <v>0.0388775895063599</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>56</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1057503217.698118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1544915125.223982</v>
+        <v>1383383672.264241</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07847406608556222</v>
+        <v>0.07770694529408</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01850789994140057</v>
+        <v>0.01908294818144843</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>772457511.0551724</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>982212955.6291777</v>
+        <v>948893651.9781588</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08266327313873066</v>
+        <v>0.1165164141721691</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03267201461405996</v>
+        <v>0.04411712923703296</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>491106500.2731817</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2552582551.525783</v>
+        <v>2734209335.884827</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1374208255564428</v>
+        <v>0.1332279631330285</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02070204804877552</v>
+        <v>0.01822411886381465</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1276291293.485382</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2425369048.648501</v>
+        <v>2357813472.241858</v>
       </c>
       <c r="F37" t="n">
-        <v>0.103643285106982</v>
+        <v>0.09004237785344034</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04197129693726847</v>
+        <v>0.03168333849952635</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>50</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1212684610.125461</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1571275421.745067</v>
+        <v>1502227622.314134</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1038704148832304</v>
+        <v>0.1005023217373242</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03005806066579679</v>
+        <v>0.02433305258065393</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>785637750.0340782</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1446254816.229123</v>
+        <v>1427970985.351514</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1814977610778615</v>
+        <v>0.1937018899201148</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02579679388870137</v>
+        <v>0.02344577160398787</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>723127486.7063355</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1704779394.1622</v>
+        <v>1188758079.975245</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1573939541135801</v>
+        <v>0.1194292904420899</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04796752456293708</v>
+        <v>0.03951606582002575</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>852389611.9986701</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2573300385.704666</v>
+        <v>2510549752.091067</v>
       </c>
       <c r="F41" t="n">
-        <v>0.141630432571684</v>
+        <v>0.1653395887833067</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04322711364986873</v>
+        <v>0.04728232192769329</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1286650210.966644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2873020877.172774</v>
+        <v>4121361324.599824</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08836608491460114</v>
+        <v>0.07767435200487935</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04671321752010178</v>
+        <v>0.03370822953646658</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1436510390.270487</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2780444084.651922</v>
+        <v>2259602529.070654</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1714028081601064</v>
+        <v>0.1606615534590044</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02133812931371121</v>
+        <v>0.01589444299951843</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>62</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1390222062.771738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1428770347.610467</v>
+        <v>1564364626.722256</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07842393819577334</v>
+        <v>0.07371109996769649</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02381933578910251</v>
+        <v>0.02782780230442519</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>714385166.1336902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2216402518.999536</v>
+        <v>1725475923.887587</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1730589966539955</v>
+        <v>0.1672567898134488</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03429861880240903</v>
+        <v>0.05176082975507108</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1108201272.174208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3676460912.875387</v>
+        <v>4718622084.184658</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1385677516077275</v>
+        <v>0.1448533737089855</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05615908285891671</v>
+        <v>0.0507211839190026</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>64</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1838230407.419833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4239790652.797281</v>
+        <v>4884138713.637727</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1444849521627019</v>
+        <v>0.1497486028156568</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05463328298736043</v>
+        <v>0.04330546195867198</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>49</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2119895339.100327</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3796945381.342836</v>
+        <v>3488744964.00869</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07684801871914841</v>
+        <v>0.07992978653267327</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02954069914670374</v>
+        <v>0.03234167370260106</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>64</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1898472736.839104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1223256409.227179</v>
+        <v>1393633231.431178</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1312915361736308</v>
+        <v>0.1816874582149562</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02940373923147737</v>
+        <v>0.03149452589358131</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>611628279.6494856</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2803877643.551716</v>
+        <v>4182474352.841031</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1569380927298482</v>
+        <v>0.1201441182736447</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03757625917318698</v>
+        <v>0.05283630814134319</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>62</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1401938895.55556</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1514503503.073745</v>
+        <v>1268561262.403882</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1863066681020898</v>
+        <v>0.1326122492206275</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03758787679601195</v>
+        <v>0.04071457400446757</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>757251752.1008948</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3834895232.500406</v>
+        <v>3875551233.046501</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1377794224987935</v>
+        <v>0.1284323172260899</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05695746135250312</v>
+        <v>0.05941108669004367</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>75</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1917447682.426885</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2490599477.528481</v>
+        <v>2527498526.252232</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1996318505026519</v>
+        <v>0.189572279739491</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02362756625936777</v>
+        <v>0.02578011528611689</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>52</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1245299806.34574</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3600511309.457262</v>
+        <v>3571115819.043644</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1599564423270904</v>
+        <v>0.1492648224584014</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03363403976973884</v>
+        <v>0.05058355473473695</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1800255687.414324</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3922758572.654516</v>
+        <v>4392697217.308596</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2243355527425971</v>
+        <v>0.1444465998230104</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02584091366754123</v>
+        <v>0.02498089753815334</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>50</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1961379257.788957</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1480098176.689018</v>
+        <v>1712973619.281802</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1299574576158961</v>
+        <v>0.120118052160736</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04507851191322645</v>
+        <v>0.04582711046477764</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>740049133.5358062</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4196116657.138824</v>
+        <v>3174496404.998105</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1420620405628602</v>
+        <v>0.1142544388585495</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02720519405419456</v>
+        <v>0.02716771427217666</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>58</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2098058433.384236</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1252222165.878637</v>
+        <v>1796022309.634595</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1596585022530386</v>
+        <v>0.1329099616762058</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03610627800654324</v>
+        <v>0.02600337620138357</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>626111136.6667535</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4347130822.92697</v>
+        <v>4800234715.977347</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09697039671152442</v>
+        <v>0.08839150194661766</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04119765570429135</v>
+        <v>0.0423171911704964</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2173565370.649049</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3736729202.049002</v>
+        <v>2782663846.289147</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1340858081937344</v>
+        <v>0.1455950973579346</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02583535004610563</v>
+        <v>0.02597978658700185</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1868364748.631892</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2818498042.04106</v>
+        <v>2208020602.952691</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1402007859822849</v>
+        <v>0.1343516702926631</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02078960477011801</v>
+        <v>0.0220172949638613</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>65</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1409249018.57994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2018951063.747562</v>
+        <v>2006048562.624011</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1360746489202634</v>
+        <v>0.1622942566530106</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0443335852105829</v>
+        <v>0.03907627420742085</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1009475592.762121</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4195127638.654045</v>
+        <v>3874017869.645882</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0921117838371897</v>
+        <v>0.07777224217687732</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04408020405614117</v>
+        <v>0.04665565525480442</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>52</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2097563872.967659</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5460120327.897298</v>
+        <v>4681048135.216779</v>
       </c>
       <c r="F64" t="n">
-        <v>0.136662719647754</v>
+        <v>0.126535355274494</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03285883531302505</v>
+        <v>0.02890615379701246</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>56</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2730060302.47912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5969180165.026402</v>
+        <v>4762092103.052254</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1262525927399389</v>
+        <v>0.1183518228970164</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0255732069893373</v>
+        <v>0.0279943659756124</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>66</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2984589983.551266</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4780154567.030652</v>
+        <v>5131605782.29888</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1628021257741509</v>
+        <v>0.1258737340133525</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04323119155359451</v>
+        <v>0.04601514219717037</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>53</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2390077298.856376</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2126554943.987889</v>
+        <v>2370464324.356667</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0901065886664861</v>
+        <v>0.0838400334734981</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03698137769576017</v>
+        <v>0.03318858641945977</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>59</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1063277564.182419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4486719579.024875</v>
+        <v>5108074576.794475</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1385705933697238</v>
+        <v>0.1100013804445815</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04955622699262701</v>
+        <v>0.04742983304222854</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2243359814.782045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1901292306.135218</v>
+        <v>2006316939.688243</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1831130197749236</v>
+        <v>0.1497916856448154</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05422692406444315</v>
+        <v>0.0387860880945045</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>950646145.2623019</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3568346491.395025</v>
+        <v>3101683499.659113</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08140945937104231</v>
+        <v>0.06532799840928101</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04602676887751683</v>
+        <v>0.0453073223709861</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>52</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1784173259.611088</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4855721279.674329</v>
+        <v>5168505024.742051</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1234784902107444</v>
+        <v>0.1741645387223582</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03102879969296641</v>
+        <v>0.02603815002354414</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2427860734.732292</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1687085721.099926</v>
+        <v>2249580181.528267</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09542878066024657</v>
+        <v>0.1055918929127114</v>
       </c>
       <c r="G72" t="n">
-        <v>0.047370799163422</v>
+        <v>0.04922009953852759</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>843542857.3574878</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2752388204.947075</v>
+        <v>2674248095.890206</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1057178651113634</v>
+        <v>0.1014200010653721</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04937805630682165</v>
+        <v>0.03286894213879956</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>70</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1376194121.087068</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3298259970.195701</v>
+        <v>3055531302.783932</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1606943623170936</v>
+        <v>0.1699209295127404</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02542481478309621</v>
+        <v>0.02962310484621731</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>62</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1649130024.65446</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1877220960.533668</v>
+        <v>1827694516.928003</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1396463477100799</v>
+        <v>0.1303259724656878</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03390817732360742</v>
+        <v>0.02298258132511425</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>938610455.9365294</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4277918898.089429</v>
+        <v>4144260055.569647</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1207166288864353</v>
+        <v>0.1173499464522097</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02111577841439204</v>
+        <v>0.0239194316150329</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2138959445.357075</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1888563149.567197</v>
+        <v>2139515235.88515</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1543479400370423</v>
+        <v>0.1540226406029247</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02762646933839328</v>
+        <v>0.02403534981079899</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>944281619.8007586</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4400852318.958424</v>
+        <v>3718510420.896644</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1370693369781182</v>
+        <v>0.08634829853660489</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04805137951338558</v>
+        <v>0.04404609623606374</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>64</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2200426096.515538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1577992044.229863</v>
+        <v>1258403389.802001</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1378699015429277</v>
+        <v>0.1158794503497809</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03248360650839974</v>
+        <v>0.02745475175273712</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>788996069.9559674</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5159951770.40012</v>
+        <v>5130474003.117846</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08866803579972334</v>
+        <v>0.1044046115676486</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03610530265610739</v>
+        <v>0.02715553792684625</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>38</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2579975942.334555</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3187074862.449975</v>
+        <v>3463741135.576898</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1292585945249175</v>
+        <v>0.1365555289909293</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03207410798922664</v>
+        <v>0.02364575978415509</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>42</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1593537364.237844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5071499284.086515</v>
+        <v>5693102885.541338</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1733499995309507</v>
+        <v>0.1875582259881882</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02441051765871449</v>
+        <v>0.02627563253506051</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2535749621.974144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2301427763.57384</v>
+        <v>2149523431.391891</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1321913602053327</v>
+        <v>0.1440363071406061</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0374160193333523</v>
+        <v>0.03685448868378317</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1150713904.546194</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2210288242.662988</v>
+        <v>2424172799.586276</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09752244289935608</v>
+        <v>0.07608518103687849</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0323743170600189</v>
+        <v>0.0474156722569139</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1105144095.493346</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2516270583.42397</v>
+        <v>2899654269.765035</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1345667132948759</v>
+        <v>0.1535305380930244</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03683170006501105</v>
+        <v>0.04616487082457742</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>69</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1258135298.42691</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2625586234.403814</v>
+        <v>1706013838.0582</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1438462909318398</v>
+        <v>0.1040363059836861</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01883292734908299</v>
+        <v>0.0222289012917476</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1312793231.812708</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1084148042.032899</v>
+        <v>1361251629.880126</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1582596081610463</v>
+        <v>0.1572971642562117</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02684964479585352</v>
+        <v>0.02820995581636052</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>542074046.8855079</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2471925651.789641</v>
+        <v>3349002837.5536</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1264133093340313</v>
+        <v>0.1642449238746282</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02993706445853139</v>
+        <v>0.02515692784147948</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>72</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1235962804.12737</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2997022537.868538</v>
+        <v>2583941529.281214</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1280555819746283</v>
+        <v>0.1191581942781213</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02866923789674723</v>
+        <v>0.04103838133192327</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>61</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1498511307.23067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1863802606.706441</v>
+        <v>1501433904.81587</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1142452952636481</v>
+        <v>0.1277610514212566</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03625866269134884</v>
+        <v>0.04322527318267833</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>931901348.6201656</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1987290087.917436</v>
+        <v>1338770326.785653</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1786357018125369</v>
+        <v>0.1708648884902643</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05044887974217192</v>
+        <v>0.0438696800447183</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>993645017.8863586</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2755586366.313064</v>
+        <v>2681065805.495984</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06764765905002004</v>
+        <v>0.09321694078053792</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04275151433833413</v>
+        <v>0.04588318690427746</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>45</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1377793186.381733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3788532082.779037</v>
+        <v>4623611016.559216</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1119565683545898</v>
+        <v>0.1295587617931251</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04045685873363115</v>
+        <v>0.04415419421959447</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1894266055.655013</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2459341794.688372</v>
+        <v>1632127859.468116</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1329922497302786</v>
+        <v>0.1267471187902749</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02942767344911625</v>
+        <v>0.02997570008311617</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1229670955.447596</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2453376305.209219</v>
+        <v>2511585482.365851</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121457466639472</v>
+        <v>0.1355845660321756</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04241106954469274</v>
+        <v>0.05253382510942509</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1226688192.067884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2087760495.841418</v>
+        <v>1506054267.415473</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1205740860201194</v>
+        <v>0.0881763794077943</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0325301479048758</v>
+        <v>0.03650928290526267</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1043880225.503986</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3703937578.488277</v>
+        <v>3655314778.710735</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1580023722533143</v>
+        <v>0.1480706541928689</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02426398370727741</v>
+        <v>0.02880992269695888</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1851968821.785329</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3104378927.290938</v>
+        <v>2521845131.74243</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08540269369241034</v>
+        <v>0.08315434682951368</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02778048659239988</v>
+        <v>0.02660081703338229</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>48</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1552189455.386691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2526857126.063766</v>
+        <v>3048854355.103509</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1275980025894876</v>
+        <v>0.1187710880426304</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02306090794081744</v>
+        <v>0.02357860698929532</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>56</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1263428514.716811</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4153195566.518162</v>
+        <v>3332383801.232952</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1125545610690965</v>
+        <v>0.177272339815341</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02671995313776896</v>
+        <v>0.02246028958583903</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>55</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2076597866.136114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2720151592.533355</v>
+        <v>2181388660.309166</v>
       </c>
       <c r="F101" t="n">
-        <v>0.158556848408542</v>
+        <v>0.2170271460821261</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03707108408325147</v>
+        <v>0.05418367393964453</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>74</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1360075848.319635</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_182.xlsx
+++ b/output/fit_clients/fit_round_182.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2434291389.308385</v>
+        <v>2039146572.746088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08412871781032838</v>
+        <v>0.1006095611918379</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03736006051435792</v>
+        <v>0.04066836348709497</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1658066325.11425</v>
+        <v>2511810810.776495</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1259335957388039</v>
+        <v>0.1685544981398534</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03366831532329294</v>
+        <v>0.0391646446927938</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4093611861.273589</v>
+        <v>4257158603.544807</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1027131557538997</v>
+        <v>0.1562739889150723</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03043131762964292</v>
+        <v>0.03556181257496411</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4000846490.403874</v>
+        <v>3237349104.39517</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07478687675221489</v>
+        <v>0.07562513110312072</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03619630546877831</v>
+        <v>0.03882473766118192</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1897721374.456323</v>
+        <v>2345264855.477377</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1088010596706184</v>
+        <v>0.121623474238025</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04187806404306255</v>
+        <v>0.0393014963559725</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2387991298.001861</v>
+        <v>2455225797.300746</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06394347271872396</v>
+        <v>0.06292549303956653</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0425149070115931</v>
+        <v>0.03784408688140199</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3924641864.740424</v>
+        <v>3936252906.616355</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1393390829065465</v>
+        <v>0.2131963599403194</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03026491595681998</v>
+        <v>0.02953637849064056</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1712893943.96391</v>
+        <v>2053176696.877015</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1601889855591064</v>
+        <v>0.1927730620753565</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02264012746830394</v>
+        <v>0.03296591076485766</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4077714158.05234</v>
+        <v>4723969916.846546</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1742779126002851</v>
+        <v>0.1439553054722153</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03391051219316282</v>
+        <v>0.0520336930280194</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2607673973.137431</v>
+        <v>3792876335.200457</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1356021883508816</v>
+        <v>0.1726631968080695</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03424751493869527</v>
+        <v>0.03931753813675404</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3240949440.648139</v>
+        <v>2066167267.961215</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1720649637357107</v>
+        <v>0.1296490207793921</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04399368672025512</v>
+        <v>0.0461108866707421</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4860306523.485313</v>
+        <v>4181486064.954232</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07009434016826729</v>
+        <v>0.09114038930069389</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02155734742409922</v>
+        <v>0.02644964802568538</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3037381986.612095</v>
+        <v>2955073262.391475</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1695071694364986</v>
+        <v>0.171144868519446</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0384762425323101</v>
+        <v>0.03384304449897772</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1616908482.282213</v>
+        <v>1454015218.978193</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09767473341226299</v>
+        <v>0.1054487461967095</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03622723930252393</v>
+        <v>0.03924189703316883</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2477750422.778043</v>
+        <v>2025654025.492549</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09208548960894652</v>
+        <v>0.1149859908844092</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03984051511658292</v>
+        <v>0.03951421885867126</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3718827648.691453</v>
+        <v>3737611702.31737</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1054649001302669</v>
+        <v>0.1507980089990691</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03976941457649375</v>
+        <v>0.05315194049433882</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3468636498.413253</v>
+        <v>3650159178.152783</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1366060935285676</v>
+        <v>0.1275397205817357</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02218707303468961</v>
+        <v>0.03409864785815698</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1104623266.183354</v>
+        <v>1185286228.065562</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1153420973171306</v>
+        <v>0.1885118221196622</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01820249288549208</v>
+        <v>0.02740399246763906</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2053073719.786561</v>
+        <v>2720305377.063559</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1074596977603852</v>
+        <v>0.1603632831635793</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03031716985362658</v>
+        <v>0.01933905529301118</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1876354426.256096</v>
+        <v>1670745567.164513</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08055794434569966</v>
+        <v>0.06596988398185069</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03032348775447396</v>
+        <v>0.04348186568923762</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3501934722.364542</v>
+        <v>2544190544.94018</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1188719093556843</v>
+        <v>0.1057729813723319</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04836709096061489</v>
+        <v>0.05501433322793409</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1143962188.066428</v>
+        <v>1212087879.626321</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1199725894639799</v>
+        <v>0.1339723545034283</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05321306766538651</v>
+        <v>0.05093015275089479</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3823299475.887521</v>
+        <v>2965527133.719869</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09320605439123231</v>
+        <v>0.1156703760935506</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02497702440509082</v>
+        <v>0.0353697953677241</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1057284204.885759</v>
+        <v>1038799339.433978</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1001323256074617</v>
+        <v>0.08147696936765084</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02599703019117877</v>
+        <v>0.0230829076609715</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1449554145.184378</v>
+        <v>1208331694.673636</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1121279199249354</v>
+        <v>0.08645132850193481</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03096459856216966</v>
+        <v>0.02682686072502864</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3119222952.140857</v>
+        <v>4207171451.396809</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1471429800198001</v>
+        <v>0.1160802041934865</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01965164099136763</v>
+        <v>0.01666063777018302</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3096221118.606955</v>
+        <v>3252237062.705169</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1131150772372625</v>
+        <v>0.1302484348347511</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04442020203509154</v>
+        <v>0.03080273368816024</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3868981393.180176</v>
+        <v>4381792246.850886</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1364858954582331</v>
+        <v>0.1171752982074208</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04119284045657168</v>
+        <v>0.02987551909730637</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1547803327.203362</v>
+        <v>1992235329.808563</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1022557402605033</v>
+        <v>0.1064294947365377</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0346989397950744</v>
+        <v>0.03395776715872955</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1238540563.408716</v>
+        <v>1256766361.330957</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1108709713541733</v>
+        <v>0.08580894510828191</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03192677567790834</v>
+        <v>0.04512296464842637</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1231853600.299097</v>
+        <v>1714670756.023254</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09404712744744481</v>
+        <v>0.1170109541167424</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03620348444796464</v>
+        <v>0.02475949610145771</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2145204551.270933</v>
+        <v>2210546388.642436</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2023365635270367</v>
+        <v>0.1510233937435333</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0388775895063599</v>
+        <v>0.04516892160012081</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1383383672.264241</v>
+        <v>1033337669.653563</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07770694529408</v>
+        <v>0.07815480777410715</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01908294818144843</v>
+        <v>0.02052208567587319</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>948893651.9781588</v>
+        <v>1040545891.899029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1165164141721691</v>
+        <v>0.0995966179126944</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04411712923703296</v>
+        <v>0.0429514104093901</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2734209335.884827</v>
+        <v>3014293856.976647</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1332279631330285</v>
+        <v>0.1574871085132029</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01822411886381465</v>
+        <v>0.0281179240446401</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2357813472.241858</v>
+        <v>2546731841.203901</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09004237785344034</v>
+        <v>0.0914442675284636</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03168333849952635</v>
+        <v>0.0402013893532133</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1502227622.314134</v>
+        <v>1652276067.545384</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1005023217373242</v>
+        <v>0.1164411953299188</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02433305258065393</v>
+        <v>0.03650249354368672</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1427970985.351514</v>
+        <v>1595833711.577315</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1937018899201148</v>
+        <v>0.1219379338746625</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02344577160398787</v>
+        <v>0.03032109826720561</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1188758079.975245</v>
+        <v>1736375271.150563</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1194292904420899</v>
+        <v>0.1343364744017012</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03951606582002575</v>
+        <v>0.05702507183277839</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2510549752.091067</v>
+        <v>2417486688.884468</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1653395887833067</v>
+        <v>0.1481490038413227</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04728232192769329</v>
+        <v>0.03253088663929225</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4121361324.599824</v>
+        <v>3593904045.53283</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07767435200487935</v>
+        <v>0.1033519858563514</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03370822953646658</v>
+        <v>0.02918389192660157</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2259602529.070654</v>
+        <v>2679474582.229742</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1606615534590044</v>
+        <v>0.1677120269723207</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01589444299951843</v>
+        <v>0.0195298844604054</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,16 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1564364626.722256</v>
+        <v>1970145744.290518</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07371109996769649</v>
+        <v>0.08550765121897515</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02782780230442519</v>
+        <v>0.0269345831239888</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1725475923.887587</v>
+        <v>1579728291.177974</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1672567898134488</v>
+        <v>0.1593199833290029</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05176082975507108</v>
+        <v>0.05031802900979447</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4718622084.184658</v>
+        <v>4890065612.82337</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1448533737089855</v>
+        <v>0.1245495082481311</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0507211839190026</v>
+        <v>0.05089511241353801</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4884138713.637727</v>
+        <v>4390089088.590742</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1497486028156568</v>
+        <v>0.1698695381923543</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04330546195867198</v>
+        <v>0.04105671534800374</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3488744964.00869</v>
+        <v>3624604808.857203</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07992978653267327</v>
+        <v>0.07348556593087743</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03234167370260106</v>
+        <v>0.02440604031281394</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1393633231.431178</v>
+        <v>1764903636.638505</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1816874582149562</v>
+        <v>0.1769013274979734</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03149452589358131</v>
+        <v>0.02995636528900952</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4182474352.841031</v>
+        <v>3445549145.973251</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1201441182736447</v>
+        <v>0.175346486411676</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05283630814134319</v>
+        <v>0.05012067323085586</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1268561262.403882</v>
+        <v>1047617846.719638</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1326122492206275</v>
+        <v>0.1597763221002373</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04071457400446757</v>
+        <v>0.04923681389959361</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3875551233.046501</v>
+        <v>4262755236.273791</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1284323172260899</v>
+        <v>0.1139495275496868</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05941108669004367</v>
+        <v>0.05747490218538102</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2527498526.252232</v>
+        <v>3445055811.327342</v>
       </c>
       <c r="F53" t="n">
-        <v>0.189572279739491</v>
+        <v>0.1559605932197826</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02578011528611689</v>
+        <v>0.0310641075836354</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3571115819.043644</v>
+        <v>3490580743.761773</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1492648224584014</v>
+        <v>0.1039524209699808</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05058355473473695</v>
+        <v>0.04763905390320033</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4392697217.308596</v>
+        <v>3036163373.922883</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1444465998230104</v>
+        <v>0.1875892545065904</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02498089753815334</v>
+        <v>0.02314180675281413</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1712973619.281802</v>
+        <v>1729928957.360473</v>
       </c>
       <c r="F56" t="n">
-        <v>0.120118052160736</v>
+        <v>0.1144208071022967</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04582711046477764</v>
+        <v>0.04212265295910409</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3174496404.998105</v>
+        <v>4225051327.430486</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1142544388585495</v>
+        <v>0.1230652058760992</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02716771427217666</v>
+        <v>0.02712534156418454</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1796022309.634595</v>
+        <v>1823581260.270638</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1329099616762058</v>
+        <v>0.1223975406206924</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02600337620138357</v>
+        <v>0.03725070359218405</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4800234715.977347</v>
+        <v>4706951719.507899</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08839150194661766</v>
+        <v>0.08858614995412899</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0423171911704964</v>
+        <v>0.03389768412878699</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,16 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2782663846.289147</v>
+        <v>3427456014.643533</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1455950973579346</v>
+        <v>0.1429452406930085</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02597978658700185</v>
+        <v>0.02779553682232707</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2208020602.952691</v>
+        <v>2872229639.693838</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1343516702926631</v>
+        <v>0.1622744324000529</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0220172949638613</v>
+        <v>0.02811558941216111</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2006048562.624011</v>
+        <v>2097637404.293093</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1622942566530106</v>
+        <v>0.1799697167927507</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03907627420742085</v>
+        <v>0.04762694274777021</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3874017869.645882</v>
+        <v>5382996200.056799</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07777224217687732</v>
+        <v>0.08621688194621886</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04665565525480442</v>
+        <v>0.03488710769008256</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4681048135.216779</v>
+        <v>3492975709.738534</v>
       </c>
       <c r="F64" t="n">
-        <v>0.126535355274494</v>
+        <v>0.137443266954583</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02890615379701246</v>
+        <v>0.03211556139204737</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4762092103.052254</v>
+        <v>5588058782.216969</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1183518228970164</v>
+        <v>0.1283416770083191</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0279943659756124</v>
+        <v>0.0268099701919115</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5131605782.29888</v>
+        <v>5468437549.330795</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1258737340133525</v>
+        <v>0.1240843072549803</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04601514219717037</v>
+        <v>0.04736755965635403</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2370464324.356667</v>
+        <v>2747314811.540097</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0838400334734981</v>
+        <v>0.07060352503884273</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03318858641945977</v>
+        <v>0.03679093971850892</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5108074576.794475</v>
+        <v>3903879938.297184</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1100013804445815</v>
+        <v>0.1168867088882488</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04742983304222854</v>
+        <v>0.03954395369358814</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2006316939.688243</v>
+        <v>2462113068.949925</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1497916856448154</v>
+        <v>0.180724615710174</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0387860880945045</v>
+        <v>0.04796966005102916</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3101683499.659113</v>
+        <v>2429210738.163553</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06532799840928101</v>
+        <v>0.08276971526258661</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0453073223709861</v>
+        <v>0.04436839917096153</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5168505024.742051</v>
+        <v>5381170903.804637</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1741645387223582</v>
+        <v>0.1553163933788009</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02603815002354414</v>
+        <v>0.02426312009806904</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2249580181.528267</v>
+        <v>1616857820.45705</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1055918929127114</v>
+        <v>0.07762694098619188</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04922009953852759</v>
+        <v>0.05334767484274022</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2674248095.890206</v>
+        <v>2869970636.329128</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1014200010653721</v>
+        <v>0.08226125851074571</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03286894213879956</v>
+        <v>0.03848355574501862</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3055531302.783932</v>
+        <v>2828448376.505855</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1699209295127404</v>
+        <v>0.1665830623772698</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02962310484621731</v>
+        <v>0.03534731222038028</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1827694516.928003</v>
+        <v>1669464541.880375</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1303259724656878</v>
+        <v>0.1615518394176825</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02298258132511425</v>
+        <v>0.03522414369411526</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4144260055.569647</v>
+        <v>4775989708.74819</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1173499464522097</v>
+        <v>0.1107100951949203</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0239194316150329</v>
+        <v>0.02965497183099222</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2139515235.88515</v>
+        <v>1686451740.465153</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1540226406029247</v>
+        <v>0.1700535486982667</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02403534981079899</v>
+        <v>0.02430662509485341</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3718510420.896644</v>
+        <v>3647625036.882295</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08634829853660489</v>
+        <v>0.1074161126850747</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04404609623606374</v>
+        <v>0.04018215522956192</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1258403389.802001</v>
+        <v>1835583483.684937</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1158794503497809</v>
+        <v>0.1104002328274296</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02745475175273712</v>
+        <v>0.03493416769636492</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5130474003.117846</v>
+        <v>5468002522.379579</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1044046115676486</v>
+        <v>0.09492609214080749</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02715553792684625</v>
+        <v>0.02986580511860988</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3463741135.576898</v>
+        <v>4062112025.739882</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1365555289909293</v>
+        <v>0.09113287092428415</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02364575978415509</v>
+        <v>0.02951661618467422</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5693102885.541338</v>
+        <v>4909928838.628091</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1875582259881882</v>
+        <v>0.1963085752518452</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02627563253506051</v>
+        <v>0.02084811552063147</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2149523431.391891</v>
+        <v>2445737258.334022</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1440363071406061</v>
+        <v>0.1445196018053446</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03685448868378317</v>
+        <v>0.02782151141523576</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2424172799.586276</v>
+        <v>2105138252.713321</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07608518103687849</v>
+        <v>0.1065902582422026</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0474156722569139</v>
+        <v>0.04485647432267637</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2899654269.765035</v>
+        <v>2584509501.4755</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1535305380930244</v>
+        <v>0.124620619519629</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04616487082457742</v>
+        <v>0.04327319021741387</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1706013838.0582</v>
+        <v>2526753401.325229</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1040363059836861</v>
+        <v>0.1114673733861542</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0222289012917476</v>
+        <v>0.02751654715341863</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1361251629.880126</v>
+        <v>1354773106.618062</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1572971642562117</v>
+        <v>0.1637442908187757</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02820995581636052</v>
+        <v>0.04449337244314621</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3349002837.5536</v>
+        <v>2434289510.326354</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1642449238746282</v>
+        <v>0.1212641564888428</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02515692784147948</v>
+        <v>0.02942291170566613</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2583941529.281214</v>
+        <v>3475732189.800363</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1191581942781213</v>
+        <v>0.1205829159350684</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04103838133192327</v>
+        <v>0.03930042992885638</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1501433904.81587</v>
+        <v>2005528172.485298</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1277610514212566</v>
+        <v>0.1293492431159519</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04322527318267833</v>
+        <v>0.04901126788828448</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1338770326.785653</v>
+        <v>1725006867.123601</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1708648884902643</v>
+        <v>0.1672714972372538</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0438696800447183</v>
+        <v>0.03846885755714932</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2681065805.495984</v>
+        <v>2664566024.49884</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09321694078053792</v>
+        <v>0.0735188294473015</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04588318690427746</v>
+        <v>0.03031427745431551</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4623611016.559216</v>
+        <v>4560186027.776701</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1295587617931251</v>
+        <v>0.1168563954145422</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04415419421959447</v>
+        <v>0.04601289603561624</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1632127859.468116</v>
+        <v>1750868117.297473</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1267471187902749</v>
+        <v>0.1613633456426862</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02997570008311617</v>
+        <v>0.03593546302688148</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2511585482.365851</v>
+        <v>3221986513.869737</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1355845660321756</v>
+        <v>0.1377141765591293</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05253382510942509</v>
+        <v>0.04768381182295776</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1506054267.415473</v>
+        <v>2303982557.671844</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0881763794077943</v>
+        <v>0.08900733499148564</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03650928290526267</v>
+        <v>0.03524107679380922</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3655314778.710735</v>
+        <v>4770726419.416459</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1480706541928689</v>
+        <v>0.1623514298378619</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02880992269695888</v>
+        <v>0.02867329216399261</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2521845131.74243</v>
+        <v>2417052168.678647</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08315434682951368</v>
+        <v>0.1168957255285969</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02660081703338229</v>
+        <v>0.01982765712553882</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3048854355.103509</v>
+        <v>2704219345.990675</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1187710880426304</v>
+        <v>0.1008804701631004</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02357860698929532</v>
+        <v>0.02775976493161066</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3332383801.232952</v>
+        <v>4314255857.798877</v>
       </c>
       <c r="F100" t="n">
-        <v>0.177272339815341</v>
+        <v>0.1668039387240714</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02246028958583903</v>
+        <v>0.02462384910161027</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2181388660.309166</v>
+        <v>2214781198.767731</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2170271460821261</v>
+        <v>0.151526629621487</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05418367393964453</v>
+        <v>0.03879685584504208</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_182.xlsx
+++ b/output/fit_clients/fit_round_182.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2039146572.746088</v>
+        <v>2003953424.030161</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1006095611918379</v>
+        <v>0.1006525706258331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04066836348709497</v>
+        <v>0.02953532011959927</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2511810810.776495</v>
+        <v>1987218830.873455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1685544981398534</v>
+        <v>0.114296647461658</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0391646446927938</v>
+        <v>0.04909626290363907</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4257158603.544807</v>
+        <v>3857150647.449164</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1562739889150723</v>
+        <v>0.1666424099672733</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03556181257496411</v>
+        <v>0.03812066902999972</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" t="n">
+        <v>182</v>
+      </c>
+      <c r="K4" t="n">
+        <v>125.1049641299355</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3237349104.39517</v>
+        <v>3530803225.091493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07562513110312072</v>
+        <v>0.09431052165961143</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03882473766118192</v>
+        <v>0.04178441420768612</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74</v>
+      </c>
+      <c r="J5" t="n">
+        <v>182</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2345264855.477377</v>
+        <v>2491105836.259853</v>
       </c>
       <c r="F6" t="n">
-        <v>0.121623474238025</v>
+        <v>0.1362723711162031</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0393014963559725</v>
+        <v>0.03767562495402677</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2455225797.300746</v>
+        <v>2820706751.635463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06292549303956653</v>
+        <v>0.08889740312114486</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03784408688140199</v>
+        <v>0.04281597035117847</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3936252906.616355</v>
+        <v>2961221103.414606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2131963599403194</v>
+        <v>0.2060834764075899</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02953637849064056</v>
+        <v>0.02016449303619244</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>51</v>
+      </c>
+      <c r="J8" t="n">
+        <v>180</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2053176696.877015</v>
+        <v>1467004488.664676</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1927730620753565</v>
+        <v>0.1951225888403653</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03296591076485766</v>
+        <v>0.02787227846138991</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4723969916.846546</v>
+        <v>5666925314.1346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1439553054722153</v>
+        <v>0.1482641237732159</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0520336930280194</v>
+        <v>0.03660726219329259</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>167</v>
+      </c>
+      <c r="J10" t="n">
+        <v>182</v>
+      </c>
+      <c r="K10" t="n">
+        <v>136.2148468913458</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3792876335.200457</v>
+        <v>3962383895.374118</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726631968080695</v>
+        <v>0.123436904004997</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03931753813675404</v>
+        <v>0.03366683247828255</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>76</v>
+      </c>
+      <c r="J11" t="n">
+        <v>182</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2066167267.961215</v>
+        <v>2308906579.742565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1296490207793921</v>
+        <v>0.1594406641476241</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0461108866707421</v>
+        <v>0.0350521213366602</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +890,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4181486064.954232</v>
+        <v>4646748612.793791</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09114038930069389</v>
+        <v>0.0620595270892298</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02644964802568538</v>
+        <v>0.02423168776815629</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>90</v>
+      </c>
+      <c r="J13" t="n">
+        <v>182</v>
+      </c>
+      <c r="K13" t="n">
+        <v>125.8147106864544</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2955073262.391475</v>
+        <v>2600153546.302376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.171144868519446</v>
+        <v>0.12346510228151</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03384304449897772</v>
+        <v>0.04419224768029977</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>34</v>
+      </c>
+      <c r="J14" t="n">
+        <v>180</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1454015218.978193</v>
+        <v>1267419910.994805</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1054487461967095</v>
+        <v>0.09855039093858474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03924189703316883</v>
+        <v>0.0298851326559511</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2025654025.492549</v>
+        <v>2168584648.44094</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1149859908844092</v>
+        <v>0.09869781338314745</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03951421885867126</v>
+        <v>0.04034168045975783</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3737611702.31737</v>
+        <v>4226816236.872826</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1507980089990691</v>
+        <v>0.1214382268266669</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05315194049433882</v>
+        <v>0.03441302472767922</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>87</v>
+      </c>
+      <c r="J17" t="n">
+        <v>182</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3650159178.152783</v>
+        <v>3837929900.145132</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1275397205817357</v>
+        <v>0.1840856208079949</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03409864785815698</v>
+        <v>0.03440479148666638</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>182</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1185286228.065562</v>
+        <v>1123222342.122048</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1885118221196622</v>
+        <v>0.1318315626264881</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02740399246763906</v>
+        <v>0.0249218288157958</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2720305377.063559</v>
+        <v>2233074071.120101</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1603632831635793</v>
+        <v>0.1524522852220692</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01933905529301118</v>
+        <v>0.02878713888838937</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1670745567.164513</v>
+        <v>1845600691.26012</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06596988398185069</v>
+        <v>0.08773251626859775</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04348186568923762</v>
+        <v>0.03461278774568932</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2544190544.94018</v>
+        <v>3010122295.38508</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1057729813723319</v>
+        <v>0.09943014282495796</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05501433322793409</v>
+        <v>0.04222852233116616</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>47</v>
+      </c>
+      <c r="J22" t="n">
+        <v>181</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69.47758102226702</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1212087879.626321</v>
+        <v>1338634784.343886</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1339723545034283</v>
+        <v>0.1427135769546439</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05093015275089479</v>
+        <v>0.03419850474584626</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2965527133.719869</v>
+        <v>2599594034.829652</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1156703760935506</v>
+        <v>0.1097420559416099</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0353697953677241</v>
+        <v>0.02683355116060123</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>56</v>
+      </c>
+      <c r="J24" t="n">
+        <v>181</v>
+      </c>
+      <c r="K24" t="n">
+        <v>52.31421180791789</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1038799339.433978</v>
+        <v>955890365.2453041</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08147696936765084</v>
+        <v>0.0889429095333969</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0230829076609715</v>
+        <v>0.02425689424544002</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1208331694.673636</v>
+        <v>883672392.4809841</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08645132850193481</v>
+        <v>0.1073877123767499</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02682686072502864</v>
+        <v>0.03816371775643509</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4207171451.396809</v>
+        <v>4713764880.215289</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1160802041934865</v>
+        <v>0.09643422498458531</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01666063777018302</v>
+        <v>0.02531537228395395</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>72</v>
+      </c>
+      <c r="J27" t="n">
+        <v>181</v>
+      </c>
+      <c r="K27" t="n">
+        <v>107.9462768417765</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1417,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3252237062.705169</v>
+        <v>3673405856.621572</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1302484348347511</v>
+        <v>0.1339756293607064</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03080273368816024</v>
+        <v>0.04633735480184175</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>36</v>
+      </c>
+      <c r="J28" t="n">
+        <v>181</v>
+      </c>
+      <c r="K28" t="n">
+        <v>114.0606126632192</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4381792246.850886</v>
+        <v>4655347064.248672</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1171752982074208</v>
+        <v>0.1076818967904449</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02987551909730637</v>
+        <v>0.03557447962710114</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>171</v>
+      </c>
+      <c r="J29" t="n">
+        <v>182</v>
+      </c>
+      <c r="K29" t="n">
+        <v>143.5326026633571</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1992235329.808563</v>
+        <v>1641664391.867516</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1064294947365377</v>
+        <v>0.1016979422545125</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03395776715872955</v>
+        <v>0.02661451116727521</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1256766361.330957</v>
+        <v>1173730469.636551</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08580894510828191</v>
+        <v>0.08502788251061007</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04512296464842637</v>
+        <v>0.04185402511147642</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1714670756.023254</v>
+        <v>1846001087.251654</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1170109541167424</v>
+        <v>0.09728285383097629</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02475949610145771</v>
+        <v>0.03644308092261921</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2210546388.642436</v>
+        <v>2613291510.807441</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1510233937435333</v>
+        <v>0.1555641773214327</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04516892160012081</v>
+        <v>0.04716265216013148</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1033337669.653563</v>
+        <v>1373999253.883784</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07815480777410715</v>
+        <v>0.1173567636457107</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02052208567587319</v>
+        <v>0.02660329468661672</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1040545891.899029</v>
+        <v>1085776088.728991</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0995966179126944</v>
+        <v>0.1092173537347652</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0429514104093901</v>
+        <v>0.03017784298970073</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3014293856.976647</v>
+        <v>2287318996.890966</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1574871085132029</v>
+        <v>0.1126897265984976</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0281179240446401</v>
+        <v>0.02326389371200067</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2546731841.203901</v>
+        <v>2629547885.065787</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0914442675284636</v>
+        <v>0.108085793539293</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0402013893532133</v>
+        <v>0.03956643939702525</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1652276067.545384</v>
+        <v>2041585223.338056</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1164411953299188</v>
+        <v>0.09554749211085772</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03650249354368672</v>
+        <v>0.03553841164177339</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1595833711.577315</v>
+        <v>1522776057.632247</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1219379338746625</v>
+        <v>0.1181166621275991</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03032109826720561</v>
+        <v>0.02178363036186051</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1736375271.150563</v>
+        <v>1728286010.697902</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1343364744017012</v>
+        <v>0.1567138781691632</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05702507183277839</v>
+        <v>0.04280702094564776</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2417486688.884468</v>
+        <v>2477681743.280375</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1481490038413227</v>
+        <v>0.1030704425064135</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03253088663929225</v>
+        <v>0.04453055708926898</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3593904045.53283</v>
+        <v>3337967407.968222</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1033519858563514</v>
+        <v>0.1016417059280746</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02918389192660157</v>
+        <v>0.04013136286637072</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>70</v>
+      </c>
+      <c r="J42" t="n">
+        <v>180</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2679474582.229742</v>
+        <v>2678468478.471499</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1677120269723207</v>
+        <v>0.1456437416655624</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0195298844604054</v>
+        <v>0.01713717670538402</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1970145744.290518</v>
+        <v>1668018511.889728</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08550765121897515</v>
+        <v>0.07474902084413142</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0269345831239888</v>
+        <v>0.03203845720629122</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1579728291.177974</v>
+        <v>1630138151.623332</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1593199833290029</v>
+        <v>0.171057256363244</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05031802900979447</v>
+        <v>0.03918679552999838</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4890065612.82337</v>
+        <v>3731066528.492318</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1245495082481311</v>
+        <v>0.1325142060375732</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05089511241353801</v>
+        <v>0.05358875760358265</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>103</v>
+      </c>
+      <c r="J46" t="n">
+        <v>181</v>
+      </c>
+      <c r="K46" t="n">
+        <v>119.55221659421</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4390089088.590742</v>
+        <v>3862699793.193865</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1698695381923543</v>
+        <v>0.1375788374111989</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04105671534800374</v>
+        <v>0.04649431953151788</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>80</v>
+      </c>
+      <c r="J47" t="n">
+        <v>182</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3624604808.857203</v>
+        <v>4402821804.560861</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07348556593087743</v>
+        <v>0.09727764500925117</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02440604031281394</v>
+        <v>0.02488738835946203</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>84</v>
+      </c>
+      <c r="J48" t="n">
+        <v>182</v>
+      </c>
+      <c r="K48" t="n">
+        <v>131.2563784966204</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1764903636.638505</v>
+        <v>1935802166.015651</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1769013274979734</v>
+        <v>0.1589295488835462</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02995636528900952</v>
+        <v>0.03756384949849643</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3445549145.973251</v>
+        <v>4056214985.482024</v>
       </c>
       <c r="F50" t="n">
-        <v>0.175346486411676</v>
+        <v>0.1519291424194016</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05012067323085586</v>
+        <v>0.04988943116818258</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>182</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1047617846.719638</v>
+        <v>1504102030.339346</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1597763221002373</v>
+        <v>0.1778677187187927</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04923681389959361</v>
+        <v>0.03406249871610068</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4262755236.273791</v>
+        <v>4590456741.186369</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1139495275496868</v>
+        <v>0.1061085787883411</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05747490218538102</v>
+        <v>0.05131856898590714</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>128</v>
+      </c>
+      <c r="J52" t="n">
+        <v>182</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3445055811.327342</v>
+        <v>2920039537.008557</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1559605932197826</v>
+        <v>0.188159893364819</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0310641075836354</v>
+        <v>0.0326420731143062</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>24</v>
+      </c>
+      <c r="J53" t="n">
+        <v>178</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3490580743.761773</v>
+        <v>3589888372.546363</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1039524209699808</v>
+        <v>0.1478393370605195</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04763905390320033</v>
+        <v>0.04424100100269513</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>93</v>
+      </c>
+      <c r="J54" t="n">
+        <v>181</v>
+      </c>
+      <c r="K54" t="n">
+        <v>112.5310218112547</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3036163373.922883</v>
+        <v>4486746872.103921</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1875892545065904</v>
+        <v>0.1621975961828553</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02314180675281413</v>
+        <v>0.01965015115662337</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>82</v>
+      </c>
+      <c r="J55" t="n">
+        <v>182</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1729928957.360473</v>
+        <v>1420594467.00505</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1144208071022967</v>
+        <v>0.1560882329371831</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04212265295910409</v>
+        <v>0.03596734227019123</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2442,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4225051327.430486</v>
+        <v>4382449509.51472</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1230652058760992</v>
+        <v>0.1673489804523626</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02712534156418454</v>
+        <v>0.02683271223610516</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>74</v>
+      </c>
+      <c r="J57" t="n">
+        <v>181</v>
+      </c>
+      <c r="K57" t="n">
+        <v>124.5910946085316</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1823581260.270638</v>
+        <v>1333674298.354179</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1223975406206924</v>
+        <v>0.1449938826952487</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03725070359218405</v>
+        <v>0.02811212993913079</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2514,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4706951719.507899</v>
+        <v>4871085306.434163</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08858614995412899</v>
+        <v>0.09712015545570338</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03389768412878699</v>
+        <v>0.04099749754233011</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>87</v>
+      </c>
+      <c r="J59" t="n">
+        <v>182</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3427456014.643533</v>
+        <v>3519623499.075944</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1429452406930085</v>
+        <v>0.1738265362257225</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02779553682232707</v>
+        <v>0.02985863336217214</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2872229639.693838</v>
+        <v>2617775510.806204</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1622744324000529</v>
+        <v>0.1591575868590433</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02811558941216111</v>
+        <v>0.02198315335540152</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2097637404.293093</v>
+        <v>1749661510.546681</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1799697167927507</v>
+        <v>0.1530246977346452</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04762694274777021</v>
+        <v>0.04078655140955725</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5382996200.056799</v>
+        <v>4916518073.438629</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08621688194621886</v>
+        <v>0.0869082436815512</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03488710769008256</v>
+        <v>0.03630269623893598</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>89</v>
+      </c>
+      <c r="J63" t="n">
+        <v>182</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3492975709.738534</v>
+        <v>3925956400.291979</v>
       </c>
       <c r="F64" t="n">
-        <v>0.137443266954583</v>
+        <v>0.1457836278353183</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03211556139204737</v>
+        <v>0.03127595473999089</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>89</v>
+      </c>
+      <c r="J64" t="n">
+        <v>182</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5588058782.216969</v>
+        <v>4433637487.801738</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1283416770083191</v>
+        <v>0.1490897483149122</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0268099701919115</v>
+        <v>0.02311027866223686</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>147</v>
+      </c>
+      <c r="J65" t="n">
+        <v>182</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5468437549.330795</v>
+        <v>5668397859.987683</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1240843072549803</v>
+        <v>0.1276240153138565</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04736755965635403</v>
+        <v>0.04896916956123214</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>89</v>
+      </c>
+      <c r="J66" t="n">
+        <v>182</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2747314811.540097</v>
+        <v>2492885093.64497</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07060352503884273</v>
+        <v>0.08410135409239172</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03679093971850892</v>
+        <v>0.03444512302847838</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2829,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3903879938.297184</v>
+        <v>4270139279.88028</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1168867088882488</v>
+        <v>0.1163182979673165</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03954395369358814</v>
+        <v>0.04541016444823682</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>91</v>
+      </c>
+      <c r="J68" t="n">
+        <v>182</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2870,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2462113068.949925</v>
+        <v>2031483895.162175</v>
       </c>
       <c r="F69" t="n">
-        <v>0.180724615710174</v>
+        <v>0.125659312932665</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04796966005102916</v>
+        <v>0.0414438842205885</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2899,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2429210738.163553</v>
+        <v>2640182218.478378</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08276971526258661</v>
+        <v>0.1015378653987756</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04436839917096153</v>
+        <v>0.04565099127643552</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2934,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5381170903.804637</v>
+        <v>3505769520.571959</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1553163933788009</v>
+        <v>0.1521526704022197</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02426312009806904</v>
+        <v>0.03074493114875133</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>142</v>
+      </c>
+      <c r="J71" t="n">
+        <v>180</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1616857820.45705</v>
+        <v>1475684150.055191</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07762694098619188</v>
+        <v>0.07142282594911599</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05334767484274022</v>
+        <v>0.03773341287086988</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3010,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2869970636.329128</v>
+        <v>2681170612.559553</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08226125851074571</v>
+        <v>0.09174754402347096</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03848355574501862</v>
+        <v>0.04704851670504729</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3039,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2828448376.505855</v>
+        <v>3195548063.620658</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1665830623772698</v>
+        <v>0.1180999737834969</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03534731222038028</v>
+        <v>0.02278821630730759</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>53</v>
+      </c>
+      <c r="J74" t="n">
+        <v>178</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3074,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1669464541.880375</v>
+        <v>2489568383.383789</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1615518394176825</v>
+        <v>0.1611924987174473</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03522414369411526</v>
+        <v>0.02446750726975644</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3115,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4775989708.74819</v>
+        <v>3505566561.618531</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1107100951949203</v>
+        <v>0.08880270467759152</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02965497183099222</v>
+        <v>0.02621331291949872</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>83</v>
+      </c>
+      <c r="J76" t="n">
+        <v>181</v>
+      </c>
+      <c r="K76" t="n">
+        <v>88.84876657290064</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3152,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1686451740.465153</v>
+        <v>2238175062.230012</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1700535486982667</v>
+        <v>0.1272465598242959</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02430662509485341</v>
+        <v>0.02958076274539935</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3647625036.882295</v>
+        <v>4788819282.579981</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1074161126850747</v>
+        <v>0.1028960423517235</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04018215522956192</v>
+        <v>0.04076825069950485</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>92</v>
+      </c>
+      <c r="J78" t="n">
+        <v>182</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1835583483.684937</v>
+        <v>1548220321.929461</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1104002328274296</v>
+        <v>0.1748671358960752</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03493416769636492</v>
+        <v>0.03018187032377</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5468002522.379579</v>
+        <v>4861185515.393379</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09492609214080749</v>
+        <v>0.1041751630555255</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02986580511860988</v>
+        <v>0.0336820837385394</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>89</v>
+      </c>
+      <c r="J80" t="n">
+        <v>181</v>
+      </c>
+      <c r="K80" t="n">
+        <v>93.61710130874067</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4062112025.739882</v>
+        <v>3286298130.46779</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09113287092428415</v>
+        <v>0.1023289111269341</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02951661618467422</v>
+        <v>0.02163823818449542</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>84</v>
+      </c>
+      <c r="J81" t="n">
+        <v>181</v>
+      </c>
+      <c r="K81" t="n">
+        <v>80.1678529051849</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4909928838.628091</v>
+        <v>3447106797.997</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1963085752518452</v>
+        <v>0.1608372786216927</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02084811552063147</v>
+        <v>0.02357811315947991</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>135</v>
+      </c>
+      <c r="J82" t="n">
+        <v>181</v>
+      </c>
+      <c r="K82" t="n">
+        <v>107.9067306217681</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2445737258.334022</v>
+        <v>1707910921.536463</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1445196018053446</v>
+        <v>0.1242468346644905</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02782151141523576</v>
+        <v>0.03151891877354668</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3403,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2105138252.713321</v>
+        <v>1633105152.342968</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1065902582422026</v>
+        <v>0.1136116602400909</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04485647432267637</v>
+        <v>0.03838498140399547</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2584509501.4755</v>
+        <v>2576358670.391636</v>
       </c>
       <c r="F85" t="n">
-        <v>0.124620619519629</v>
+        <v>0.1483907457856035</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04327319021741387</v>
+        <v>0.03990626071212405</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2526753401.325229</v>
+        <v>2297555709.970202</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1114673733861542</v>
+        <v>0.1675859011310932</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02751654715341863</v>
+        <v>0.01834295505560253</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1354773106.618062</v>
+        <v>1212177939.252939</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1637442908187757</v>
+        <v>0.1839252006998705</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04449337244314621</v>
+        <v>0.04245998825685379</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2434289510.326354</v>
+        <v>2478592603.315808</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1212641564888428</v>
+        <v>0.1407043165275352</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02942291170566613</v>
+        <v>0.02596922756973641</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>26</v>
+      </c>
+      <c r="J88" t="n">
+        <v>181</v>
+      </c>
+      <c r="K88" t="n">
+        <v>55.96883061988032</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3475732189.800363</v>
+        <v>2286686727.291527</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1205829159350684</v>
+        <v>0.1125894678493824</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03930042992885638</v>
+        <v>0.03013070856521295</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2005528172.485298</v>
+        <v>1759001566.874482</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1293492431159519</v>
+        <v>0.09766783280684778</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04901126788828448</v>
+        <v>0.03713772086878691</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1725006867.123601</v>
+        <v>1555291509.616572</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1672714972372538</v>
+        <v>0.1721244368125627</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03846885755714932</v>
+        <v>0.06119803763230804</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2664566024.49884</v>
+        <v>2342169029.065669</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0735188294473015</v>
+        <v>0.0812922102777736</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03031427745431551</v>
+        <v>0.04054904436870202</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4560186027.776701</v>
+        <v>4038473922.666914</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1168563954145422</v>
+        <v>0.09085313351483916</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04601289603561624</v>
+        <v>0.03913842873360796</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>82</v>
+      </c>
+      <c r="J93" t="n">
+        <v>181</v>
+      </c>
+      <c r="K93" t="n">
+        <v>120.4183218083732</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1750868117.297473</v>
+        <v>2214092093.34133</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1613633456426862</v>
+        <v>0.1366193969358828</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03593546302688148</v>
+        <v>0.03339757792471516</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3221986513.869737</v>
+        <v>2935458802.253714</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1377141765591293</v>
+        <v>0.1216035127664203</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04768381182295776</v>
+        <v>0.04410226616431242</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2303982557.671844</v>
+        <v>1493158322.481987</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08900733499148564</v>
+        <v>0.1356164112454356</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03524107679380922</v>
+        <v>0.04139097360294474</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4770726419.416459</v>
+        <v>4727168725.5099</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1623514298378619</v>
+        <v>0.1492634839173358</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02867329216399261</v>
+        <v>0.01804567322857827</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>88</v>
+      </c>
+      <c r="J97" t="n">
+        <v>181</v>
+      </c>
+      <c r="K97" t="n">
+        <v>123.4007473981992</v>
       </c>
     </row>
     <row r="98">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2417052168.678647</v>
+        <v>2495752558.354315</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1168957255285969</v>
+        <v>0.1119103354414785</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01982765712553882</v>
+        <v>0.03053714001169333</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>44</v>
+      </c>
+      <c r="J98" t="n">
+        <v>179</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2704219345.990675</v>
+        <v>2970059553.042953</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1008804701631004</v>
+        <v>0.1002202433914498</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02775976493161066</v>
+        <v>0.02856903876539157</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4314255857.798877</v>
+        <v>4289627172.986873</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1668039387240714</v>
+        <v>0.1620458555092622</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02462384910161027</v>
+        <v>0.02626062700055782</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>76</v>
+      </c>
+      <c r="J100" t="n">
+        <v>181</v>
+      </c>
+      <c r="K100" t="n">
+        <v>119.6562580602542</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2214781198.767731</v>
+        <v>3238961634.269582</v>
       </c>
       <c r="F101" t="n">
-        <v>0.151526629621487</v>
+        <v>0.2017981711522719</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03879685584504208</v>
+        <v>0.05647568539369665</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
